--- a/_posts/西餐常用香料笔记.xlsx
+++ b/_posts/西餐常用香料笔记.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiracomp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_clone\compson.github.io\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899822A2-BB27-4C64-BE65-6BF1AA5CAE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A28D5-23C7-4477-8348-72307C0B8C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="2388" windowWidth="13284" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>英文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香草束(bouquet garni)、法餐混合香草碎(fine herbes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>醋、番茄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√香气更强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>八角、茴香、温和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +325,10 @@
   </si>
   <si>
     <t>洋葱、黄油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香草束\法餐混合香草碎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +658,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -670,7 +666,8 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="3" max="4" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -705,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -716,28 +713,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1">
         <v>4</v>
@@ -745,37 +742,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -789,25 +786,25 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
@@ -821,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -830,19 +827,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -856,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -891,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -926,31 +923,31 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -961,77 +958,77 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
@@ -1040,57 +1037,57 @@
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
